--- a/analysis/metadata/P25_1/P25_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P25_1/P25_1_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,15 +425,30 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>correct_mfd_sampletype</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>correct_mfd_areatype</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>correct_habitat_typenumber</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>mfd_hab1</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>mfd_hab2</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>mfd_hab3</t>
         </is>
@@ -461,6 +476,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve">lille vildmose </t>
@@ -479,6 +499,41 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
     </row>
@@ -504,6 +559,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve">lille vildmose </t>
@@ -522,6 +582,41 @@
       <c r="J3" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
     </row>
@@ -547,6 +642,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve">lille vildmose </t>
@@ -565,6 +665,41 @@
       <c r="J4" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
     </row>
@@ -590,6 +725,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t xml:space="preserve">lille vildmose </t>
@@ -608,6 +748,41 @@
       <c r="J5" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
     </row>
@@ -633,6 +808,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t xml:space="preserve">lille vildmose </t>
@@ -651,6 +831,41 @@
       <c r="J6" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
     </row>
@@ -676,6 +891,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t xml:space="preserve">lille vildmose </t>
@@ -694,6 +914,41 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
     </row>
@@ -719,6 +974,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t xml:space="preserve">lille vildmose </t>
@@ -737,6 +997,41 @@
       <c r="J8" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
     </row>
@@ -762,6 +1057,11 @@
           <t>natural_soil</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t xml:space="preserve">lille vildmose </t>
@@ -780,6 +1080,41 @@
       <c r="J9" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Soil</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Natural</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Bogs, mires and fens</t>
         </is>
       </c>
     </row>
@@ -805,6 +1140,11 @@
           <t>built_environment</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>thingbæk kalkminer</t>
@@ -823,6 +1163,51 @@
       <c r="J10" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>High chalk concentration (limestone quarry)</t>
         </is>
       </c>
     </row>
@@ -848,6 +1233,11 @@
           <t>built_environment</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>thingbæk kalkminer</t>
@@ -866,6 +1256,51 @@
       <c r="J11" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>High chalk concentration (limestone quarry)</t>
         </is>
       </c>
     </row>
@@ -891,6 +1326,11 @@
           <t>built_environment</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>thingbæk kalkminer</t>
@@ -909,6 +1349,51 @@
       <c r="J12" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>High chalk concentration (limestone quarry)</t>
         </is>
       </c>
     </row>
@@ -934,6 +1419,11 @@
           <t>built_environment</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>thingbæk kalkminer</t>
@@ -952,6 +1442,51 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>High chalk concentration (limestone quarry)</t>
         </is>
       </c>
     </row>
@@ -977,6 +1512,11 @@
           <t>built_environment</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2120</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>læsø saltsydekar</t>
@@ -995,6 +1535,51 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>13984</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2120</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>High salinity (saltworks)</t>
         </is>
       </c>
     </row>
@@ -1020,6 +1605,11 @@
           <t>built_environment</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>thingbæk kalkminer</t>
@@ -1038,6 +1628,51 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>High chalk concentration (limestone quarry)</t>
         </is>
       </c>
     </row>
@@ -1063,6 +1698,11 @@
           <t>built_environment</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>thingbæk kalkminer</t>
@@ -1081,6 +1721,51 @@
       <c r="J16" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>High chalk concentration (limestone quarry)</t>
         </is>
       </c>
     </row>
@@ -1106,6 +1791,11 @@
           <t>built_environment</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>thingbæk kalkminer</t>
@@ -1124,6 +1814,51 @@
       <c r="J17" t="inlineStr">
         <is>
           <t>P25_1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>14169</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Sediment</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>High chalk concentration (limestone quarry)</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P25_1/P25_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P25_1/P25_1_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,30 +425,15 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>correct_mfd_sampletype</t>
+          <t>mfd_hab1</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>correct_mfd_areatype</t>
+          <t>mfd_hab2</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>correct_habitat_typenumber</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>mfd_hab1</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>mfd_hab2</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>mfd_hab3</t>
         </is>
@@ -518,21 +503,6 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>7000</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
           <t>Bogs, mires and fens</t>
         </is>
       </c>
@@ -601,21 +571,6 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>7000</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
           <t>Bogs, mires and fens</t>
         </is>
       </c>
@@ -684,21 +639,6 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>7000</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
           <t>Bogs, mires and fens</t>
         </is>
       </c>
@@ -767,21 +707,6 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>7000</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
           <t>Bogs, mires and fens</t>
         </is>
       </c>
@@ -850,21 +775,6 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>7000</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
           <t>Bogs, mires and fens</t>
         </is>
       </c>
@@ -933,21 +843,6 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>7000</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
           <t>Bogs, mires and fens</t>
         </is>
       </c>
@@ -1016,21 +911,6 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>7000</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
           <t>Bogs, mires and fens</t>
         </is>
       </c>
@@ -1099,21 +979,6 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Natural</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>7000</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
           <t>Bogs, mires and fens</t>
         </is>
       </c>
@@ -1182,30 +1047,15 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
-        <is>
-          <t>2130</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1275,30 +1125,15 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
-        <is>
-          <t>2130</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1368,30 +1203,15 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
-        <is>
-          <t>2130</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1461,30 +1281,15 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
-        <is>
-          <t>2130</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1554,30 +1359,15 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
-        <is>
-          <t>2120</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
         <is>
           <t>High salinity (saltworks)</t>
         </is>
@@ -1647,30 +1437,15 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
-        <is>
-          <t>2130</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1740,30 +1515,15 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
-        <is>
-          <t>2130</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1833,30 +1593,15 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Sediment</t>
+          <t>Urban</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
-        <is>
-          <t>2130</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Urban</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>

--- a/analysis/metadata/P25_1/P25_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P25_1/P25_1_minimal_metadata.xlsx
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1047,15 +1047,10 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1085,7 +1080,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1125,15 +1120,10 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1163,7 +1153,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1203,15 +1193,10 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1241,7 +1226,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1281,15 +1266,10 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1319,7 +1299,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2120</t>
+          <t>2200</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1359,15 +1339,10 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
         <is>
           <t>High salinity (saltworks)</t>
         </is>
@@ -1397,7 +1372,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1437,15 +1412,10 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1475,7 +1445,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1515,15 +1485,10 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>
@@ -1553,7 +1518,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2130</t>
+          <t>2300</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1593,15 +1558,10 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
         <is>
           <t>High chalk concentration (limestone quarry)</t>
         </is>

--- a/analysis/metadata/P25_1/P25_1_minimal_metadata.xlsx
+++ b/analysis/metadata/P25_1/P25_1_minimal_metadata.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -634,7 +634,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1115,7 +1115,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>13984</t>
+          <t>2008-04-15</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>14169</t>
+          <t>2008-10-17</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
